--- a/biology/Zoologie/Anarhichas_denticulatus/Anarhichas_denticulatus.xlsx
+++ b/biology/Zoologie/Anarhichas_denticulatus/Anarhichas_denticulatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anarhichas denticulatus est une espèce de poissons de la famille des Anarhichadidae qui se rencontre dans le nord de l'océan Atlantique.
 </t>
@@ -511,7 +523,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce porte les noms communs suivants : 
 en français :
@@ -552,7 +566,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Anarhichas denticulatus est présent dans le nord de l'océan Atlantique, du Canada jusqu'au banc de l'Île de Sable. Tout comme le Loup tacheté (Anarhichas minor), il est actuellement menacé de disparition dans le Golfe du Saint-Laurent où sa pêche est interdite.
 </t>
@@ -583,7 +599,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le corps est entièrement brun foncé, marqué de nombreuses taches de forme indistincte. Sa taille maximale connue est de 1,80 m, pour un poids d'environ 20 kg.
 </t>
